--- a/Car wash WPF upd/Задачи.xlsx
+++ b/Car wash WPF upd/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Задача</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Добавить в database.cs соответствующие методы для задачи №5</t>
+  </si>
+  <si>
+    <t>Добавить в отчетность по отзывам просмотр записи</t>
+  </si>
+  <si>
+    <t>Добавить в отчетность по записям просмотр клиента и отзыва</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,24 +110,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -130,26 +123,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,34 +421,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="52.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -466,7 +457,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -481,7 +472,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -496,7 +487,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -513,7 +504,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -528,7 +519,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -543,7 +534,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -555,11 +546,48 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
       <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Car wash WPF upd/Задачи.xlsx
+++ b/Car wash WPF upd/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Задача</t>
   </si>
@@ -48,22 +48,31 @@
     <t>Настроить обновление БД с заданной переодичностью</t>
   </si>
   <si>
-    <t>Добавить функции изменить\удалить</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Приоритет (1-3)</t>
   </si>
   <si>
-    <t>Добавить в database.cs соответствующие методы для задачи №5</t>
-  </si>
-  <si>
     <t>Добавить в отчетность по отзывам просмотр записи</t>
   </si>
   <si>
     <t>Добавить в отчетность по записям просмотр клиента и отзыва</t>
+  </si>
+  <si>
+    <t>ГОТОВО</t>
+  </si>
+  <si>
+    <t>Успех пришел неожиданно</t>
+  </si>
+  <si>
+    <t>Добавить функции изменить\удалить (для 1 выбранной строки)</t>
+  </si>
+  <si>
+    <t>Добавить в database.cs соответствующие методы для задачи №5, 6</t>
+  </si>
+  <si>
+    <t>Добавить функции изменить\удалить (для нескольких выбранных строк)</t>
   </si>
 </sst>
 </file>
@@ -421,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +447,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -447,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -461,12 +470,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -515,12 +526,12 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -534,38 +545,38 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -575,11 +586,19 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,6 +608,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Car wash WPF upd/Задачи.xlsx
+++ b/Car wash WPF upd/Задачи.xlsx
@@ -60,9 +60,6 @@
     <t>Добавить в отчетность по записям просмотр клиента и отзыва</t>
   </si>
   <si>
-    <t>ГОТОВО</t>
-  </si>
-  <si>
     <t>Успех пришел неожиданно</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Добавить функции изменить\удалить (для нескольких выбранных строк)</t>
+  </si>
+  <si>
+    <t>ГОТОВО [100%]</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>

--- a/Car wash WPF upd/Задачи.xlsx
+++ b/Car wash WPF upd/Задачи.xlsx
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>

--- a/Car wash WPF upd/Задачи.xlsx
+++ b/Car wash WPF upd/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Задача</t>
   </si>
@@ -48,31 +48,22 @@
     <t>Настроить обновление БД с заданной переодичностью</t>
   </si>
   <si>
+    <t>Добавить функции изменить\удалить</t>
+  </si>
+  <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Приоритет (1-3)</t>
   </si>
   <si>
+    <t>Добавить в database.cs соответствующие методы для задачи №5</t>
+  </si>
+  <si>
     <t>Добавить в отчетность по отзывам просмотр записи</t>
   </si>
   <si>
     <t>Добавить в отчетность по записям просмотр клиента и отзыва</t>
-  </si>
-  <si>
-    <t>Успех пришел неожиданно</t>
-  </si>
-  <si>
-    <t>Добавить функции изменить\удалить (для 1 выбранной строки)</t>
-  </si>
-  <si>
-    <t>Добавить в database.cs соответствующие методы для задачи №5, 6</t>
-  </si>
-  <si>
-    <t>Добавить функции изменить\удалить (для нескольких выбранных строк)</t>
-  </si>
-  <si>
-    <t>ГОТОВО [100%]</t>
   </si>
 </sst>
 </file>
@@ -430,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -456,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -470,14 +461,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -502,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -526,15 +515,15 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -545,38 +534,38 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -586,19 +575,11 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,13 +589,6 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
